--- a/UnitySamples/Assets/Configs/PeaceEquipments.xlsx
+++ b/UnitySamples/Assets/Configs/PeaceEquipments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\BuildShip\ShipDock\UnitySamples\Assets\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{095E8773-283F-40C2-8095-E6AD66D2C6D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00237569-654E-4479-A061-9E4A9C1E332F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="690" windowWidth="28800" windowHeight="14910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -136,16 +136,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1 = 破坏。增加部队的破坏属性，配比3
-2 = 杀伤。增加部队的杀伤属性，配比1
-3 = 防空。增加部队的防空属性，配比2
-4 = 强化。增加部队的耐力属性，配比1
-5 = 电子战。增加部队的侦察属性，配比3
-6 = 运载。增加部队的移动属性，配比2
-7 = 科技。增加部队的精锐属性，配比3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>[10,20,45,10,10,0,0]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -217,6 +207,16 @@
   </si>
   <si>
     <t>precise</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 = 破坏。增加部队的破坏，配比3
+2 = 杀伤。增加部队的杀伤，配比1
+3 = 防空。增加部队的防空，配比2
+4 = 强化。增加部队的装甲，配比1
+5 = 电子战。增加部队的侦察，配比3
+6 = 运载。增加部队的移动，配比2
+7 = 科技。增加部队的精锐，配比3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -595,7 +595,7 @@
   <dimension ref="A1:CP573"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -753,7 +753,7 @@
         <v>17</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>24</v>
@@ -850,25 +850,25 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -1091,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I8" s="1">
         <v>0</v>
@@ -1427,7 +1427,7 @@
         <v>4</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
@@ -1524,7 +1524,7 @@
         <v>20004</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>5</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
@@ -1636,7 +1636,7 @@
         <v>20005</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2">
         <v>0</v>
@@ -1651,7 +1651,7 @@
         <v>6</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>20006</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" s="2">
         <v>0</v>
@@ -1763,7 +1763,7 @@
         <v>7</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="1">
         <v>0</v>
@@ -1860,7 +1860,7 @@
         <v>20007</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="2">
         <v>0</v>
@@ -1875,7 +1875,7 @@
         <v>8</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
